--- a/output7/【河洛文讀注音-閩拼調號】《滕王閣序》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《滕王閣序》.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52DAFB4-5494-445B-B90C-DC8E3FB716C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{957896AD-673D-4D0C-8250-5926F5665E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="3150" windowWidth="25080" windowHeight="12270" activeTab="2" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="5" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7157" uniqueCount="2765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7157" uniqueCount="2781">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -8905,12 +8905,92 @@
   <si>
     <t>Sòo</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>台語音標</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>校正音標</t>
+    </r>
+  </si>
+  <si>
+    <t>zin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>that4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>le5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cuan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nai7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hing2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cuan3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huan1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sia1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khak4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hut4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="46">
+  <fonts count="48">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9226,6 +9306,19 @@
       <color rgb="FFFF0000"/>
       <name val="Sitka Text Semibold"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -9342,7 +9435,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9534,6 +9627,9 @@
     <xf numFmtId="0" fontId="44" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
@@ -9549,8 +9645,8 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -20851,9 +20947,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C3825D-92D9-41C7-897F-6E483F8EB949}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -20865,11 +20961,11 @@
       <c r="B1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>65</v>
+      <c r="C1" s="69" t="s">
+        <v>2765</v>
+      </c>
+      <c r="D1" s="69" t="s">
+        <v>2766</v>
       </c>
       <c r="E1" t="s">
         <v>498</v>
@@ -20882,11 +20978,11 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="69" t="s">
         <v>2539</v>
       </c>
-      <c r="D2" t="s">
-        <v>499</v>
+      <c r="D2" s="69" t="s">
+        <v>2564</v>
       </c>
       <c r="E2" t="s">
         <v>2116</v>
@@ -20899,11 +20995,11 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="69" t="s">
         <v>2540</v>
       </c>
-      <c r="D3" t="s">
-        <v>499</v>
+      <c r="D3" s="69" t="s">
+        <v>2767</v>
       </c>
       <c r="E3" t="s">
         <v>930</v>
@@ -20916,11 +21012,11 @@
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="69" t="s">
         <v>2541</v>
       </c>
-      <c r="D4" t="s">
-        <v>499</v>
+      <c r="D4" s="69" t="s">
+        <v>2567</v>
       </c>
       <c r="E4" t="s">
         <v>2592</v>
@@ -20933,11 +21029,11 @@
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="69" t="s">
         <v>2542</v>
       </c>
-      <c r="D5" t="s">
-        <v>499</v>
+      <c r="D5" s="69" t="s">
+        <v>2571</v>
       </c>
       <c r="E5" t="s">
         <v>2095</v>
@@ -20950,11 +21046,11 @@
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="69" t="s">
         <v>2543</v>
       </c>
-      <c r="D6" t="s">
-        <v>499</v>
+      <c r="D6" s="69" t="s">
+        <v>2535</v>
       </c>
       <c r="E6" t="s">
         <v>2096</v>
@@ -20967,11 +21063,11 @@
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="69" t="s">
         <v>2544</v>
       </c>
-      <c r="D7" t="s">
-        <v>499</v>
+      <c r="D7" s="69" t="s">
+        <v>2574</v>
       </c>
       <c r="E7" t="s">
         <v>2097</v>
@@ -20984,11 +21080,11 @@
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="69" t="s">
         <v>2545</v>
       </c>
-      <c r="D8" t="s">
-        <v>499</v>
+      <c r="D8" s="69" t="s">
+        <v>484</v>
       </c>
       <c r="E8" t="s">
         <v>2098</v>
@@ -21001,11 +21097,11 @@
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="69" t="s">
         <v>2546</v>
       </c>
-      <c r="D9" t="s">
-        <v>499</v>
+      <c r="D9" s="69" t="s">
+        <v>2768</v>
       </c>
       <c r="E9" t="s">
         <v>1059</v>
@@ -21018,11 +21114,11 @@
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="69" t="s">
         <v>2547</v>
       </c>
-      <c r="D10" t="s">
-        <v>499</v>
+      <c r="D10" s="69" t="s">
+        <v>2769</v>
       </c>
       <c r="E10" t="s">
         <v>2099</v>
@@ -21035,11 +21131,11 @@
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="69" t="s">
         <v>2548</v>
       </c>
-      <c r="D11" t="s">
-        <v>499</v>
+      <c r="D11" s="69" t="s">
+        <v>585</v>
       </c>
       <c r="E11" t="s">
         <v>2100</v>
@@ -21052,11 +21148,11 @@
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="69" t="s">
         <v>2549</v>
       </c>
-      <c r="D12" t="s">
-        <v>499</v>
+      <c r="D12" s="69" t="s">
+        <v>2770</v>
       </c>
       <c r="E12" t="s">
         <v>2101</v>
@@ -21069,11 +21165,11 @@
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="69" t="s">
         <v>2550</v>
       </c>
-      <c r="D13" t="s">
-        <v>499</v>
+      <c r="D13" s="69" t="s">
+        <v>2760</v>
       </c>
       <c r="E13" t="s">
         <v>2102</v>
@@ -21086,11 +21182,11 @@
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="69" t="s">
         <v>2551</v>
       </c>
-      <c r="D14" t="s">
-        <v>499</v>
+      <c r="D14" s="69" t="s">
+        <v>571</v>
       </c>
       <c r="E14" t="s">
         <v>1085</v>
@@ -21103,11 +21199,11 @@
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="69" t="s">
         <v>2552</v>
       </c>
-      <c r="D15" t="s">
-        <v>499</v>
+      <c r="D15" s="69" t="s">
+        <v>774</v>
       </c>
       <c r="E15" t="s">
         <v>2103</v>
@@ -21120,11 +21216,11 @@
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="69" t="s">
         <v>2553</v>
       </c>
-      <c r="D16" t="s">
-        <v>499</v>
+      <c r="D16" s="69" t="s">
+        <v>2771</v>
       </c>
       <c r="E16" t="s">
         <v>2104</v>
@@ -21137,11 +21233,11 @@
       <c r="B17">
         <v>0</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="69" t="s">
         <v>2554</v>
       </c>
-      <c r="D17" t="s">
-        <v>499</v>
+      <c r="D17" s="69" t="s">
+        <v>2772</v>
       </c>
       <c r="E17" t="s">
         <v>2105</v>
@@ -21154,11 +21250,11 @@
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="69" t="s">
         <v>2555</v>
       </c>
-      <c r="D18" t="s">
-        <v>499</v>
+      <c r="D18" s="69" t="s">
+        <v>2773</v>
       </c>
       <c r="E18" t="s">
         <v>2106</v>
@@ -21171,11 +21267,11 @@
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="69" t="s">
         <v>2556</v>
       </c>
-      <c r="D19" t="s">
-        <v>499</v>
+      <c r="D19" s="69" t="s">
+        <v>2774</v>
       </c>
       <c r="E19" t="s">
         <v>2107</v>
@@ -21188,11 +21284,11 @@
       <c r="B20">
         <v>0</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="69" t="s">
         <v>2557</v>
       </c>
-      <c r="D20" t="s">
-        <v>499</v>
+      <c r="D20" s="69" t="s">
+        <v>535</v>
       </c>
       <c r="E20" t="s">
         <v>2108</v>
@@ -21205,11 +21301,11 @@
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="69" t="s">
         <v>2558</v>
       </c>
-      <c r="D21" t="s">
-        <v>499</v>
+      <c r="D21" s="69" t="s">
+        <v>2775</v>
       </c>
       <c r="E21" t="s">
         <v>2109</v>
@@ -21222,11 +21318,11 @@
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="69" t="s">
         <v>2559</v>
       </c>
-      <c r="D22" t="s">
-        <v>499</v>
+      <c r="D22" s="69" t="s">
+        <v>2776</v>
       </c>
       <c r="E22" t="s">
         <v>2110</v>
@@ -21239,11 +21335,11 @@
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="69" t="s">
         <v>2560</v>
       </c>
-      <c r="D23" t="s">
-        <v>499</v>
+      <c r="D23" s="69" t="s">
+        <v>2777</v>
       </c>
       <c r="E23" t="s">
         <v>2111</v>
@@ -21256,11 +21352,11 @@
       <c r="B24">
         <v>0</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="69" t="s">
         <v>2536</v>
       </c>
-      <c r="D24" t="s">
-        <v>499</v>
+      <c r="D24" s="69" t="s">
+        <v>2778</v>
       </c>
       <c r="E24" t="s">
         <v>2112</v>
@@ -21273,11 +21369,11 @@
       <c r="B25">
         <v>0</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="69" t="s">
         <v>2561</v>
       </c>
-      <c r="D25" t="s">
-        <v>499</v>
+      <c r="D25" s="69" t="s">
+        <v>2779</v>
       </c>
       <c r="E25" t="s">
         <v>2113</v>
@@ -21290,11 +21386,11 @@
       <c r="B26">
         <v>0</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="69" t="s">
         <v>2562</v>
       </c>
-      <c r="D26" t="s">
-        <v>499</v>
+      <c r="D26" s="69" t="s">
+        <v>2780</v>
       </c>
       <c r="E26" t="s">
         <v>2114</v>
@@ -21307,11 +21403,11 @@
       <c r="B27">
         <v>0</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="69" t="s">
         <v>2563</v>
       </c>
-      <c r="D27" t="s">
-        <v>499</v>
+      <c r="D27" s="69" t="s">
+        <v>2746</v>
       </c>
       <c r="E27" t="s">
         <v>2115</v>
@@ -22649,8 +22745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A205" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="N252" sqref="N252"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A265" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A285" sqref="A285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -22786,7 +22882,7 @@
       <c r="Q3" s="54"/>
       <c r="R3" s="54"/>
       <c r="T3" s="16"/>
-      <c r="V3" s="63" t="s">
+      <c r="V3" s="64" t="s">
         <v>1168</v>
       </c>
     </row>
@@ -22832,7 +22928,7 @@
       </c>
       <c r="R4" s="57"/>
       <c r="S4" s="18"/>
-      <c r="V4" s="64"/>
+      <c r="V4" s="65"/>
     </row>
     <row r="5" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="19">
@@ -22884,7 +22980,7 @@
         <v>23</v>
       </c>
       <c r="S5" s="20"/>
-      <c r="V5" s="64"/>
+      <c r="V5" s="65"/>
     </row>
     <row r="6" spans="1:22" s="24" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="21"/>
@@ -22929,7 +23025,7 @@
       </c>
       <c r="R6" s="52"/>
       <c r="S6" s="23"/>
-      <c r="V6" s="64"/>
+      <c r="V6" s="65"/>
     </row>
     <row r="7" spans="1:22" s="28" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="25"/>
@@ -22950,7 +23046,7 @@
       <c r="Q7" s="54"/>
       <c r="R7" s="54"/>
       <c r="S7" s="27"/>
-      <c r="V7" s="64"/>
+      <c r="V7" s="65"/>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
@@ -22996,7 +23092,7 @@
         <v>1608</v>
       </c>
       <c r="S8" s="18"/>
-      <c r="V8" s="64"/>
+      <c r="V8" s="65"/>
     </row>
     <row r="9" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="19">
@@ -23050,7 +23146,7 @@
       </c>
       <c r="S9" s="20"/>
       <c r="T9" s="16"/>
-      <c r="V9" s="64"/>
+      <c r="V9" s="65"/>
     </row>
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="21"/>
@@ -23096,7 +23192,7 @@
         <v>1609</v>
       </c>
       <c r="S10" s="29"/>
-      <c r="V10" s="64"/>
+      <c r="V10" s="65"/>
     </row>
     <row r="11" spans="1:22" s="27" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="30"/>
@@ -23118,7 +23214,7 @@
       <c r="P11" s="54"/>
       <c r="Q11" s="54"/>
       <c r="R11" s="54"/>
-      <c r="V11" s="64"/>
+      <c r="V11" s="65"/>
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
@@ -23164,7 +23260,7 @@
         <v>448</v>
       </c>
       <c r="S12" s="18"/>
-      <c r="V12" s="64"/>
+      <c r="V12" s="65"/>
     </row>
     <row r="13" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="19">
@@ -23217,7 +23313,7 @@
         <v>1195</v>
       </c>
       <c r="S13" s="20"/>
-      <c r="V13" s="64"/>
+      <c r="V13" s="65"/>
     </row>
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="21"/>
@@ -23263,7 +23359,7 @@
         <v>1625</v>
       </c>
       <c r="S14" s="29"/>
-      <c r="V14" s="64"/>
+      <c r="V14" s="65"/>
     </row>
     <row r="15" spans="1:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
@@ -23283,7 +23379,7 @@
       <c r="P15" s="54"/>
       <c r="Q15" s="54"/>
       <c r="R15" s="54"/>
-      <c r="V15" s="64"/>
+      <c r="V15" s="65"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
@@ -23329,7 +23425,7 @@
         <v>338</v>
       </c>
       <c r="S16" s="18"/>
-      <c r="V16" s="64"/>
+      <c r="V16" s="65"/>
     </row>
     <row r="17" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="19">
@@ -23382,7 +23478,7 @@
         <v>108</v>
       </c>
       <c r="S17" s="20"/>
-      <c r="V17" s="64"/>
+      <c r="V17" s="65"/>
     </row>
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="21"/>
@@ -23428,7 +23524,7 @@
         <v>338</v>
       </c>
       <c r="S18" s="29"/>
-      <c r="V18" s="64"/>
+      <c r="V18" s="65"/>
     </row>
     <row r="19" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="12"/>
@@ -23448,7 +23544,7 @@
       <c r="P19" s="54"/>
       <c r="Q19" s="54"/>
       <c r="R19" s="54"/>
-      <c r="V19" s="64"/>
+      <c r="V19" s="65"/>
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
@@ -23492,7 +23588,7 @@
         <v>1658</v>
       </c>
       <c r="S20" s="18"/>
-      <c r="V20" s="64"/>
+      <c r="V20" s="65"/>
     </row>
     <row r="21" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="19">
@@ -23545,7 +23641,7 @@
         <v>1214</v>
       </c>
       <c r="S21" s="20"/>
-      <c r="V21" s="64"/>
+      <c r="V21" s="65"/>
     </row>
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="21"/>
@@ -23589,7 +23685,7 @@
         <v>1659</v>
       </c>
       <c r="S22" s="29"/>
-      <c r="V22" s="64"/>
+      <c r="V22" s="65"/>
     </row>
     <row r="23" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="12"/>
@@ -23613,7 +23709,7 @@
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
       <c r="R23" s="54"/>
-      <c r="V23" s="64"/>
+      <c r="V23" s="65"/>
     </row>
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="17"/>
@@ -23659,7 +23755,7 @@
         <v>1671</v>
       </c>
       <c r="S24" s="18"/>
-      <c r="V24" s="64"/>
+      <c r="V24" s="65"/>
     </row>
     <row r="25" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B25" s="19">
@@ -23712,7 +23808,7 @@
         <v>1223</v>
       </c>
       <c r="S25" s="20"/>
-      <c r="V25" s="64"/>
+      <c r="V25" s="65"/>
     </row>
     <row r="26" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="21"/>
@@ -23758,7 +23854,7 @@
         <v>1672</v>
       </c>
       <c r="S26" s="29"/>
-      <c r="V26" s="64"/>
+      <c r="V26" s="65"/>
     </row>
     <row r="27" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B27" s="12"/>
@@ -23786,7 +23882,7 @@
         <f t="shared" ref="U27:U32" si="1" xml:space="preserve"> MID($N$26,4,1)</f>
         <v/>
       </c>
-      <c r="V27" s="64"/>
+      <c r="V27" s="65"/>
     </row>
     <row r="28" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="17"/>
@@ -23836,7 +23932,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V28" s="64"/>
+      <c r="V28" s="65"/>
     </row>
     <row r="29" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B29" s="19">
@@ -23893,7 +23989,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V29" s="64"/>
+      <c r="V29" s="65"/>
     </row>
     <row r="30" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="21"/>
@@ -23943,7 +24039,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V30" s="64"/>
+      <c r="V30" s="65"/>
     </row>
     <row r="31" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B31" s="12"/>
@@ -23969,7 +24065,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V31" s="64"/>
+      <c r="V31" s="65"/>
     </row>
     <row r="32" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="17"/>
@@ -23983,7 +24079,7 @@
         <v>1685</v>
       </c>
       <c r="G32" s="57"/>
-      <c r="H32" s="68" t="s">
+      <c r="H32" s="63" t="s">
         <v>2570</v>
       </c>
       <c r="I32" s="57" t="s">
@@ -24017,7 +24113,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V32" s="64"/>
+      <c r="V32" s="65"/>
     </row>
     <row r="33" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B33" s="19">
@@ -24070,7 +24166,7 @@
         <v>111</v>
       </c>
       <c r="S33" s="20"/>
-      <c r="V33" s="64"/>
+      <c r="V33" s="65"/>
     </row>
     <row r="34" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="21"/>
@@ -24114,7 +24210,7 @@
         <v>1695</v>
       </c>
       <c r="S34" s="29"/>
-      <c r="V34" s="64"/>
+      <c r="V34" s="65"/>
     </row>
     <row r="35" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B35" s="12"/>
@@ -24134,7 +24230,7 @@
       <c r="P35" s="54"/>
       <c r="Q35" s="54"/>
       <c r="R35" s="54"/>
-      <c r="V35" s="64"/>
+      <c r="V35" s="65"/>
     </row>
     <row r="36" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="17"/>
@@ -24178,7 +24274,7 @@
         <v>1708</v>
       </c>
       <c r="S36" s="18"/>
-      <c r="V36" s="64"/>
+      <c r="V36" s="65"/>
     </row>
     <row r="37" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B37" s="19">
@@ -24231,7 +24327,7 @@
         <v>1249</v>
       </c>
       <c r="S37" s="20"/>
-      <c r="V37" s="64"/>
+      <c r="V37" s="65"/>
     </row>
     <row r="38" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="21"/>
@@ -24275,7 +24371,7 @@
         <v>1709</v>
       </c>
       <c r="S38" s="29"/>
-      <c r="V38" s="64"/>
+      <c r="V38" s="65"/>
     </row>
     <row r="39" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B39" s="12"/>
@@ -24297,7 +24393,7 @@
       <c r="R39" s="54" t="s">
         <v>2607</v>
       </c>
-      <c r="V39" s="64"/>
+      <c r="V39" s="65"/>
     </row>
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="17"/>
@@ -24343,7 +24439,7 @@
         <v>2713</v>
       </c>
       <c r="S40" s="18"/>
-      <c r="V40" s="64"/>
+      <c r="V40" s="65"/>
     </row>
     <row r="41" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B41" s="19">
@@ -24396,7 +24492,7 @@
         <v>1261</v>
       </c>
       <c r="S41" s="20"/>
-      <c r="V41" s="64"/>
+      <c r="V41" s="65"/>
     </row>
     <row r="42" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="21"/>
@@ -24442,7 +24538,7 @@
         <v>2713</v>
       </c>
       <c r="S42" s="29"/>
-      <c r="V42" s="64"/>
+      <c r="V42" s="65"/>
     </row>
     <row r="43" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B43" s="12"/>
@@ -24462,7 +24558,7 @@
       <c r="P43" s="54"/>
       <c r="Q43" s="54"/>
       <c r="R43" s="54"/>
-      <c r="V43" s="64"/>
+      <c r="V43" s="65"/>
     </row>
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="17"/>
@@ -24506,7 +24602,7 @@
         <v>1740</v>
       </c>
       <c r="S44" s="18"/>
-      <c r="V44" s="64"/>
+      <c r="V44" s="65"/>
     </row>
     <row r="45" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B45" s="19">
@@ -24559,7 +24655,7 @@
         <v>1270</v>
       </c>
       <c r="S45" s="20"/>
-      <c r="V45" s="64"/>
+      <c r="V45" s="65"/>
     </row>
     <row r="46" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="21"/>
@@ -24603,7 +24699,7 @@
         <v>1741</v>
       </c>
       <c r="S46" s="29"/>
-      <c r="V46" s="64"/>
+      <c r="V46" s="65"/>
     </row>
     <row r="47" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B47" s="12"/>
@@ -24625,7 +24721,7 @@
       <c r="P47" s="54"/>
       <c r="Q47" s="54"/>
       <c r="R47" s="53"/>
-      <c r="V47" s="64"/>
+      <c r="V47" s="65"/>
     </row>
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="17"/>
@@ -24665,7 +24761,7 @@
       <c r="Q48" s="57"/>
       <c r="R48" s="51"/>
       <c r="S48" s="18"/>
-      <c r="V48" s="64"/>
+      <c r="V48" s="65"/>
     </row>
     <row r="49" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B49" s="19">
@@ -24718,7 +24814,7 @@
       </c>
       <c r="R49" s="39"/>
       <c r="S49" s="20"/>
-      <c r="V49" s="64"/>
+      <c r="V49" s="65"/>
     </row>
     <row r="50" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="21"/>
@@ -24758,7 +24854,7 @@
       <c r="Q50" s="52"/>
       <c r="R50" s="52"/>
       <c r="S50" s="29"/>
-      <c r="V50" s="64"/>
+      <c r="V50" s="65"/>
     </row>
     <row r="51" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B51" s="12"/>
@@ -24778,7 +24874,7 @@
       <c r="P51" s="53"/>
       <c r="Q51" s="53"/>
       <c r="R51" s="53"/>
-      <c r="V51" s="64"/>
+      <c r="V51" s="65"/>
     </row>
     <row r="52" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="17"/>
@@ -24798,7 +24894,7 @@
       <c r="Q52" s="51"/>
       <c r="R52" s="51"/>
       <c r="S52" s="18"/>
-      <c r="V52" s="64"/>
+      <c r="V52" s="65"/>
     </row>
     <row r="53" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B53" s="19">
@@ -24825,7 +24921,7 @@
       <c r="Q53" s="39"/>
       <c r="R53" s="39"/>
       <c r="S53" s="20"/>
-      <c r="V53" s="64"/>
+      <c r="V53" s="65"/>
     </row>
     <row r="54" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="21"/>
@@ -24845,7 +24941,7 @@
       <c r="Q54" s="52"/>
       <c r="R54" s="52"/>
       <c r="S54" s="29"/>
-      <c r="V54" s="64"/>
+      <c r="V54" s="65"/>
     </row>
     <row r="55" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B55" s="12"/>
@@ -24869,7 +24965,7 @@
       <c r="R55" s="54" t="s">
         <v>2610</v>
       </c>
-      <c r="V55" s="64"/>
+      <c r="V55" s="65"/>
     </row>
     <row r="56" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="17"/>
@@ -24915,7 +25011,7 @@
         <v>2718</v>
       </c>
       <c r="S56" s="18"/>
-      <c r="V56" s="64"/>
+      <c r="V56" s="65"/>
     </row>
     <row r="57" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B57" s="19">
@@ -24968,7 +25064,7 @@
         <v>1283</v>
       </c>
       <c r="S57" s="20"/>
-      <c r="V57" s="64"/>
+      <c r="V57" s="65"/>
     </row>
     <row r="58" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="21"/>
@@ -25014,7 +25110,7 @@
         <v>2719</v>
       </c>
       <c r="S58" s="29"/>
-      <c r="V58" s="64"/>
+      <c r="V58" s="65"/>
     </row>
     <row r="59" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B59" s="12"/>
@@ -25036,7 +25132,7 @@
       <c r="P59" s="54"/>
       <c r="Q59" s="54"/>
       <c r="R59" s="54"/>
-      <c r="V59" s="64"/>
+      <c r="V59" s="65"/>
     </row>
     <row r="60" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="17"/>
@@ -25072,7 +25168,7 @@
       <c r="O60" s="57" t="s">
         <v>1765</v>
       </c>
-      <c r="P60" s="68" t="s">
+      <c r="P60" s="63" t="s">
         <v>2573</v>
       </c>
       <c r="Q60" s="57" t="s">
@@ -25082,7 +25178,7 @@
         <v>333</v>
       </c>
       <c r="S60" s="18"/>
-      <c r="V60" s="64"/>
+      <c r="V60" s="65"/>
     </row>
     <row r="61" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B61" s="19">
@@ -25135,7 +25231,7 @@
         <v>102</v>
       </c>
       <c r="S61" s="20"/>
-      <c r="V61" s="64"/>
+      <c r="V61" s="65"/>
     </row>
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="21"/>
@@ -25181,7 +25277,7 @@
         <v>333</v>
       </c>
       <c r="S62" s="29"/>
-      <c r="V62" s="64"/>
+      <c r="V62" s="65"/>
     </row>
     <row r="63" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B63" s="12"/>
@@ -25201,7 +25297,7 @@
       <c r="P63" s="54"/>
       <c r="Q63" s="54"/>
       <c r="R63" s="54"/>
-      <c r="V63" s="64"/>
+      <c r="V63" s="65"/>
     </row>
     <row r="64" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="17"/>
@@ -25247,7 +25343,7 @@
         <v>350</v>
       </c>
       <c r="S64" s="18"/>
-      <c r="V64" s="64"/>
+      <c r="V64" s="65"/>
     </row>
     <row r="65" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B65" s="19">
@@ -25300,7 +25396,7 @@
         <v>121</v>
       </c>
       <c r="S65" s="20"/>
-      <c r="V65" s="64"/>
+      <c r="V65" s="65"/>
     </row>
     <row r="66" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="21"/>
@@ -25346,7 +25442,7 @@
         <v>1776</v>
       </c>
       <c r="S66" s="29"/>
-      <c r="V66" s="64"/>
+      <c r="V66" s="65"/>
     </row>
     <row r="67" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B67" s="12"/>
@@ -25368,7 +25464,7 @@
       <c r="P67" s="54"/>
       <c r="Q67" s="54"/>
       <c r="R67" s="54"/>
-      <c r="V67" s="64"/>
+      <c r="V67" s="65"/>
     </row>
     <row r="68" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="17"/>
@@ -25412,7 +25508,7 @@
         <v>1767</v>
       </c>
       <c r="S68" s="18"/>
-      <c r="V68" s="64"/>
+      <c r="V68" s="65"/>
     </row>
     <row r="69" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B69" s="19">
@@ -25465,7 +25561,7 @@
         <v>18</v>
       </c>
       <c r="S69" s="20"/>
-      <c r="V69" s="64"/>
+      <c r="V69" s="65"/>
     </row>
     <row r="70" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="21"/>
@@ -25509,7 +25605,7 @@
         <v>1768</v>
       </c>
       <c r="S70" s="29"/>
-      <c r="V70" s="64"/>
+      <c r="V70" s="65"/>
     </row>
     <row r="71" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B71" s="12"/>
@@ -25531,7 +25627,7 @@
       <c r="P71" s="54"/>
       <c r="Q71" s="54"/>
       <c r="R71" s="54"/>
-      <c r="V71" s="64"/>
+      <c r="V71" s="65"/>
     </row>
     <row r="72" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="17"/>
@@ -25575,7 +25671,7 @@
         <v>1796</v>
       </c>
       <c r="S72" s="18"/>
-      <c r="V72" s="64"/>
+      <c r="V72" s="65"/>
     </row>
     <row r="73" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B73" s="19">
@@ -25628,7 +25724,7 @@
         <v>1304</v>
       </c>
       <c r="S73" s="20"/>
-      <c r="V73" s="64"/>
+      <c r="V73" s="65"/>
     </row>
     <row r="74" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="21"/>
@@ -25672,7 +25768,7 @@
         <v>1796</v>
       </c>
       <c r="S74" s="29"/>
-      <c r="V74" s="64"/>
+      <c r="V74" s="65"/>
     </row>
     <row r="75" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B75" s="12"/>
@@ -25696,7 +25792,7 @@
       <c r="P75" s="54"/>
       <c r="Q75" s="54"/>
       <c r="R75" s="54"/>
-      <c r="V75" s="64"/>
+      <c r="V75" s="65"/>
     </row>
     <row r="76" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="17"/>
@@ -25742,7 +25838,7 @@
         <v>1748</v>
       </c>
       <c r="S76" s="18"/>
-      <c r="V76" s="64"/>
+      <c r="V76" s="65"/>
     </row>
     <row r="77" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B77" s="19">
@@ -25795,7 +25891,7 @@
         <v>1314</v>
       </c>
       <c r="S77" s="20"/>
-      <c r="V77" s="64"/>
+      <c r="V77" s="65"/>
     </row>
     <row r="78" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="21"/>
@@ -25841,7 +25937,7 @@
         <v>1749</v>
       </c>
       <c r="S78" s="29"/>
-      <c r="V78" s="64"/>
+      <c r="V78" s="65"/>
     </row>
     <row r="79" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B79" s="12"/>
@@ -25863,7 +25959,7 @@
       <c r="R79" s="54" t="s">
         <v>2557</v>
       </c>
-      <c r="V79" s="64"/>
+      <c r="V79" s="65"/>
     </row>
     <row r="80" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="17"/>
@@ -25907,7 +26003,7 @@
         <v>535</v>
       </c>
       <c r="S80" s="18"/>
-      <c r="V80" s="64"/>
+      <c r="V80" s="65"/>
     </row>
     <row r="81" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B81" s="19">
@@ -25960,7 +26056,7 @@
         <v>1325</v>
       </c>
       <c r="S81" s="20"/>
-      <c r="V81" s="64"/>
+      <c r="V81" s="65"/>
     </row>
     <row r="82" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="21"/>
@@ -26004,7 +26100,7 @@
         <v>2728</v>
       </c>
       <c r="S82" s="29"/>
-      <c r="V82" s="65"/>
+      <c r="V82" s="66"/>
     </row>
     <row r="83" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B83" s="12"/>
@@ -26065,7 +26161,7 @@
       <c r="P84" s="57" t="s">
         <v>2729</v>
       </c>
-      <c r="Q84" s="68" t="s">
+      <c r="Q84" s="63" t="s">
         <v>2577</v>
       </c>
       <c r="R84" s="57"/>
@@ -26400,7 +26496,7 @@
       <c r="O92" s="57" t="s">
         <v>334</v>
       </c>
-      <c r="P92" s="68" t="s">
+      <c r="P92" s="63" t="s">
         <v>2578</v>
       </c>
       <c r="Q92" s="57"/>
@@ -27134,7 +27230,7 @@
       <c r="J112" s="57" t="s">
         <v>317</v>
       </c>
-      <c r="K112" s="68" t="s">
+      <c r="K112" s="63" t="s">
         <v>2582</v>
       </c>
       <c r="L112" s="57" t="s">
@@ -28950,7 +29046,7 @@
       <c r="M156" s="57" t="s">
         <v>376</v>
       </c>
-      <c r="N156" s="68" t="s">
+      <c r="N156" s="63" t="s">
         <v>2587</v>
       </c>
       <c r="O156" s="57"/>
@@ -42321,7 +42417,7 @@
       <c r="Q3" s="53"/>
       <c r="R3" s="53"/>
       <c r="T3" s="16"/>
-      <c r="V3" s="63" t="s">
+      <c r="V3" s="64" t="s">
         <v>66</v>
       </c>
     </row>
@@ -42369,7 +42465,7 @@
       </c>
       <c r="R4" s="51"/>
       <c r="S4" s="18"/>
-      <c r="V4" s="66"/>
+      <c r="V4" s="67"/>
     </row>
     <row r="5" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="19">
@@ -42421,7 +42517,7 @@
         <v>30</v>
       </c>
       <c r="S5" s="20"/>
-      <c r="V5" s="66"/>
+      <c r="V5" s="67"/>
     </row>
     <row r="6" spans="1:22" s="24" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="21"/>
@@ -42468,7 +42564,7 @@
       </c>
       <c r="R6" s="52"/>
       <c r="S6" s="23"/>
-      <c r="V6" s="66"/>
+      <c r="V6" s="67"/>
     </row>
     <row r="7" spans="1:22" s="28" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="25"/>
@@ -42489,7 +42585,7 @@
       <c r="Q7" s="53"/>
       <c r="R7" s="53"/>
       <c r="S7" s="27"/>
-      <c r="V7" s="66"/>
+      <c r="V7" s="67"/>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
@@ -42533,7 +42629,7 @@
         <v>553</v>
       </c>
       <c r="S8" s="18"/>
-      <c r="V8" s="66"/>
+      <c r="V8" s="67"/>
     </row>
     <row r="9" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="19">
@@ -42587,7 +42683,7 @@
       </c>
       <c r="S9" s="20"/>
       <c r="T9" s="16"/>
-      <c r="V9" s="66"/>
+      <c r="V9" s="67"/>
     </row>
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="21"/>
@@ -42631,7 +42727,7 @@
         <v>554</v>
       </c>
       <c r="S10" s="29"/>
-      <c r="V10" s="66"/>
+      <c r="V10" s="67"/>
     </row>
     <row r="11" spans="1:22" s="27" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="30"/>
@@ -42651,7 +42747,7 @@
       <c r="P11" s="53"/>
       <c r="Q11" s="53"/>
       <c r="R11" s="53"/>
-      <c r="V11" s="66"/>
+      <c r="V11" s="67"/>
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
@@ -42697,7 +42793,7 @@
         <v>579</v>
       </c>
       <c r="S12" s="18"/>
-      <c r="V12" s="66"/>
+      <c r="V12" s="67"/>
     </row>
     <row r="13" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="19">
@@ -42750,7 +42846,7 @@
         <v>99</v>
       </c>
       <c r="S13" s="20"/>
-      <c r="V13" s="66"/>
+      <c r="V13" s="67"/>
     </row>
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="21"/>
@@ -42796,7 +42892,7 @@
         <v>580</v>
       </c>
       <c r="S14" s="29"/>
-      <c r="V14" s="66"/>
+      <c r="V14" s="67"/>
     </row>
     <row r="15" spans="1:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
@@ -42816,7 +42912,7 @@
       <c r="P15" s="53"/>
       <c r="Q15" s="53"/>
       <c r="R15" s="53"/>
-      <c r="V15" s="66"/>
+      <c r="V15" s="67"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
@@ -42862,7 +42958,7 @@
       </c>
       <c r="R16" s="51"/>
       <c r="S16" s="18"/>
-      <c r="V16" s="66"/>
+      <c r="V16" s="67"/>
     </row>
     <row r="17" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="19">
@@ -42915,7 +43011,7 @@
         <v>30</v>
       </c>
       <c r="S17" s="20"/>
-      <c r="V17" s="66"/>
+      <c r="V17" s="67"/>
     </row>
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="21"/>
@@ -42961,7 +43057,7 @@
       </c>
       <c r="R18" s="52"/>
       <c r="S18" s="29"/>
-      <c r="V18" s="66"/>
+      <c r="V18" s="67"/>
     </row>
     <row r="19" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="12"/>
@@ -42981,7 +43077,7 @@
       <c r="P19" s="53"/>
       <c r="Q19" s="53"/>
       <c r="R19" s="53"/>
-      <c r="V19" s="66"/>
+      <c r="V19" s="67"/>
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
@@ -43001,7 +43097,7 @@
       <c r="Q20" s="51"/>
       <c r="R20" s="51"/>
       <c r="S20" s="18"/>
-      <c r="V20" s="66"/>
+      <c r="V20" s="67"/>
     </row>
     <row r="21" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="19">
@@ -43028,7 +43124,7 @@
       <c r="Q21" s="39"/>
       <c r="R21" s="39"/>
       <c r="S21" s="20"/>
-      <c r="V21" s="66"/>
+      <c r="V21" s="67"/>
     </row>
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="21"/>
@@ -43048,7 +43144,7 @@
       <c r="Q22" s="52"/>
       <c r="R22" s="52"/>
       <c r="S22" s="29"/>
-      <c r="V22" s="67"/>
+      <c r="V22" s="68"/>
     </row>
     <row r="23" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="12"/>

--- a/output7/【河洛文讀注音-閩拼調號】《滕王閣序》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《滕王閣序》.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95BFDB53-CB94-4832-B5AE-20EA438B6E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE1964C0-13B3-4863-9A72-DF163EA5A62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27150" yWindow="2220" windowWidth="25080" windowHeight="12270" activeTab="5" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
@@ -12100,7 +12100,7 @@
   <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
@@ -12270,7 +12270,7 @@
         <v>1156</v>
       </c>
       <c r="C20" s="47">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -22839,7 +22839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A269" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A265" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="A285" sqref="A285"/>
     </sheetView>
   </sheetViews>
@@ -37734,19 +37734,19 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="171" priority="97">
+    <cfRule type="expression" dxfId="171" priority="98">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="97">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="170" priority="98">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="169" priority="57">
+    <cfRule type="expression" dxfId="169" priority="58">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="168" priority="57">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="168" priority="58">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
@@ -37758,11 +37758,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="165" priority="53">
+    <cfRule type="expression" dxfId="165" priority="54">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="164" priority="53">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="164" priority="54">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
@@ -37790,35 +37790,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="157" priority="45">
+    <cfRule type="expression" dxfId="157" priority="46">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="45">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="156" priority="46">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="155" priority="43">
+    <cfRule type="expression" dxfId="155" priority="44">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="43">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="154" priority="44">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:R39">
-    <cfRule type="expression" dxfId="153" priority="41">
+    <cfRule type="expression" dxfId="153" priority="42">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="152" priority="41">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="152" priority="42">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="151" priority="39">
+    <cfRule type="expression" dxfId="151" priority="40">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="39">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="150" priority="40">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
@@ -37854,11 +37854,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="141" priority="29">
+    <cfRule type="expression" dxfId="141" priority="30">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="140" priority="29">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="140" priority="30">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
@@ -37878,19 +37878,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="135" priority="23">
+    <cfRule type="expression" dxfId="135" priority="24">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="23">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="24">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
-    <cfRule type="expression" dxfId="133" priority="21">
+    <cfRule type="expression" dxfId="133" priority="22">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="21">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="22">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
@@ -37918,11 +37918,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D95:R95">
-    <cfRule type="expression" dxfId="125" priority="13">
+    <cfRule type="expression" dxfId="125" priority="14">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="13">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="14">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99:R99">
@@ -37934,19 +37934,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103:R103">
-    <cfRule type="expression" dxfId="121" priority="9">
+    <cfRule type="expression" dxfId="121" priority="10">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="9">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="10">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
-    <cfRule type="expression" dxfId="119" priority="7">
+    <cfRule type="expression" dxfId="119" priority="8">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="7">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="8">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D111:R111">
@@ -37974,43 +37974,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="111" priority="143">
+    <cfRule type="expression" dxfId="111" priority="144">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="143">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="144">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
-    <cfRule type="expression" dxfId="109" priority="141">
+    <cfRule type="expression" dxfId="109" priority="142">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="141">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="142">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D203:R203">
-    <cfRule type="expression" dxfId="107" priority="139">
+    <cfRule type="expression" dxfId="107" priority="140">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="139">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="140">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D207:R207 D211:R211 D215:R215 D219:R219 D223:R223 D227:R227 D231:R231 D235:R235 D239:R239">
-    <cfRule type="expression" dxfId="105" priority="137">
+    <cfRule type="expression" dxfId="105" priority="138">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="137">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="138">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D243:R243">
-    <cfRule type="expression" dxfId="103" priority="93">
+    <cfRule type="expression" dxfId="103" priority="94">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="93">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="94">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D247:R247 D251:R251 D255:R255 D259:R259 D263:R263 D267:R267 D271:R271 D275:R275 D279:R279">
@@ -38078,43 +38078,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D375:R375">
-    <cfRule type="expression" dxfId="85" priority="75">
+    <cfRule type="expression" dxfId="85" priority="76">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="75">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="76">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D379:R379 D383:R383 D387:R387 D391:R391 D395:R395 D399:R399 D403:R403 D407:R407 D411:R411">
-    <cfRule type="expression" dxfId="83" priority="73">
+    <cfRule type="expression" dxfId="83" priority="74">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="73">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="74">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D415:R415">
-    <cfRule type="expression" dxfId="81" priority="71">
+    <cfRule type="expression" dxfId="81" priority="72">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="71">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="72">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D419:R419">
-    <cfRule type="expression" dxfId="79" priority="69">
+    <cfRule type="expression" dxfId="79" priority="70">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="69">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="70">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D423:R423 D427:R427 D431:R431 D435:R435 D439:R439 D443:R443 D447:R447 D451:R451 D455:R455">
-    <cfRule type="expression" dxfId="77" priority="67">
+    <cfRule type="expression" dxfId="77" priority="68">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="67">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="68">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D459:R459">
@@ -49773,11 +49773,11 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="69" priority="59">
+    <cfRule type="expression" dxfId="69" priority="60">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="59">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="60">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
@@ -49797,19 +49797,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="63" priority="53">
+    <cfRule type="expression" dxfId="63" priority="54">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="53">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="54">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="61" priority="51">
+    <cfRule type="expression" dxfId="61" priority="52">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="51">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="52">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23">
@@ -49821,19 +49821,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="57" priority="47">
+    <cfRule type="expression" dxfId="57" priority="48">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="47">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="48">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="55" priority="45">
+    <cfRule type="expression" dxfId="55" priority="46">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="45">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="46">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
@@ -49845,19 +49845,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:R39">
-    <cfRule type="expression" dxfId="51" priority="41">
+    <cfRule type="expression" dxfId="51" priority="42">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="41">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="42">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="49" priority="39">
+    <cfRule type="expression" dxfId="49" priority="40">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="39">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="40">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
@@ -49877,11 +49877,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="43" priority="33">
+    <cfRule type="expression" dxfId="43" priority="34">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="33">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="34">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
@@ -49893,11 +49893,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="39" priority="29">
+    <cfRule type="expression" dxfId="39" priority="30">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="29">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="30">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
@@ -49917,19 +49917,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="33" priority="23">
+    <cfRule type="expression" dxfId="33" priority="24">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="23">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="24">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
-    <cfRule type="expression" dxfId="31" priority="21">
+    <cfRule type="expression" dxfId="31" priority="22">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="21">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="22">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
@@ -49949,11 +49949,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91:R91">
-    <cfRule type="expression" dxfId="25" priority="15">
+    <cfRule type="expression" dxfId="25" priority="16">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="15">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="16">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D95:R95">
@@ -49965,43 +49965,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99:R99">
-    <cfRule type="expression" dxfId="21" priority="11">
+    <cfRule type="expression" dxfId="21" priority="12">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="11">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="12">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103:R103">
-    <cfRule type="expression" dxfId="19" priority="9">
+    <cfRule type="expression" dxfId="19" priority="10">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="9">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="10">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
-    <cfRule type="expression" dxfId="17" priority="7">
+    <cfRule type="expression" dxfId="17" priority="8">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="7">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="8">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D111:R111">
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="15" priority="6">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="5">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="6">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115:R115">
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="13" priority="4">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="4">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D119:R119">
